--- a/3/3/Tasas de captación marginal bancaria 2003 a 2021 - Mensual.xlsx
+++ b/3/3/Tasas de captación marginal bancaria 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>Serie</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5429,6 +5432,26 @@
         <v>-0.51</v>
       </c>
     </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220">
+        <v>0.74</v>
+      </c>
+      <c r="C220">
+        <v>1.15</v>
+      </c>
+      <c r="D220">
+        <v>1.59</v>
+      </c>
+      <c r="E220">
+        <v>2.17</v>
+      </c>
+      <c r="F220">
+        <v>-0.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Tasas de captación marginal bancaria 2003 a 2021 - Mensual.xlsx
+++ b/3/3/Tasas de captación marginal bancaria 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Serie</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5452,6 +5455,26 @@
         <v>-0.59</v>
       </c>
     </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221">
+        <v>1.59</v>
+      </c>
+      <c r="C221">
+        <v>2.17</v>
+      </c>
+      <c r="D221">
+        <v>2.71</v>
+      </c>
+      <c r="E221">
+        <v>3.44</v>
+      </c>
+      <c r="F221">
+        <v>-0.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Tasas de captación marginal bancaria 2003 a 2021 - Mensual.xlsx
+++ b/3/3/Tasas de captación marginal bancaria 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Serie</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5475,6 +5478,26 @@
         <v>-0.32</v>
       </c>
     </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222">
+        <v>2.37</v>
+      </c>
+      <c r="C222">
+        <v>3.19</v>
+      </c>
+      <c r="D222">
+        <v>4.15</v>
+      </c>
+      <c r="E222">
+        <v>4.9</v>
+      </c>
+      <c r="F222">
+        <v>0.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
